--- a/yahoofinance/VGSH_yahoofin_historical_data.xlsx
+++ b/yahoofinance/VGSH_yahoofin_historical_data.xlsx
@@ -489,7 +489,7 @@
         <v>57.860001</v>
       </c>
       <c r="F2" t="n">
-        <v>56.327747</v>
+        <v>56.327751</v>
       </c>
       <c r="G2" t="n">
         <v>6806600</v>
@@ -514,7 +514,7 @@
         <v>57.93</v>
       </c>
       <c r="F3" t="n">
-        <v>56.395885</v>
+        <v>56.395889</v>
       </c>
       <c r="G3" t="n">
         <v>4448900</v>
@@ -539,7 +539,7 @@
         <v>57.860001</v>
       </c>
       <c r="F4" t="n">
-        <v>56.327747</v>
+        <v>56.327751</v>
       </c>
       <c r="G4" t="n">
         <v>3549300</v>
@@ -564,7 +564,7 @@
         <v>58.07</v>
       </c>
       <c r="F5" t="n">
-        <v>56.532185</v>
+        <v>56.532181</v>
       </c>
       <c r="G5" t="n">
         <v>2536600</v>
@@ -589,7 +589,7 @@
         <v>58.130001</v>
       </c>
       <c r="F6" t="n">
-        <v>56.590599</v>
+        <v>56.590603</v>
       </c>
       <c r="G6" t="n">
         <v>2351600</v>
@@ -639,7 +639,7 @@
         <v>58.130001</v>
       </c>
       <c r="F8" t="n">
-        <v>56.590599</v>
+        <v>56.590603</v>
       </c>
       <c r="G8" t="n">
         <v>6069500</v>
@@ -664,7 +664,7 @@
         <v>58.25</v>
       </c>
       <c r="F9" t="n">
-        <v>56.70742</v>
+        <v>56.707428</v>
       </c>
       <c r="G9" t="n">
         <v>2551000</v>
@@ -689,7 +689,7 @@
         <v>58.169998</v>
       </c>
       <c r="F10" t="n">
-        <v>56.629532</v>
+        <v>56.629536</v>
       </c>
       <c r="G10" t="n">
         <v>3338200</v>
@@ -714,7 +714,7 @@
         <v>58.189999</v>
       </c>
       <c r="F11" t="n">
-        <v>56.64901</v>
+        <v>56.649014</v>
       </c>
       <c r="G11" t="n">
         <v>3215300</v>
@@ -739,7 +739,7 @@
         <v>58.34</v>
       </c>
       <c r="F12" t="n">
-        <v>56.795029</v>
+        <v>56.795033</v>
       </c>
       <c r="G12" t="n">
         <v>4291400</v>
@@ -764,7 +764,7 @@
         <v>58.32</v>
       </c>
       <c r="F13" t="n">
-        <v>56.775566</v>
+        <v>56.77557</v>
       </c>
       <c r="G13" t="n">
         <v>2681700</v>
@@ -814,7 +814,7 @@
         <v>58.200001</v>
       </c>
       <c r="F15" t="n">
-        <v>56.658749</v>
+        <v>56.658745</v>
       </c>
       <c r="G15" t="n">
         <v>3188600</v>
@@ -839,7 +839,7 @@
         <v>58.220001</v>
       </c>
       <c r="F16" t="n">
-        <v>56.678215</v>
+        <v>56.678211</v>
       </c>
       <c r="G16" t="n">
         <v>1941800</v>
@@ -864,7 +864,7 @@
         <v>58.25</v>
       </c>
       <c r="F17" t="n">
-        <v>56.70742</v>
+        <v>56.707428</v>
       </c>
       <c r="G17" t="n">
         <v>2128400</v>
@@ -889,7 +889,7 @@
         <v>58.23</v>
       </c>
       <c r="F18" t="n">
-        <v>56.687946</v>
+        <v>56.68795</v>
       </c>
       <c r="G18" t="n">
         <v>3378700</v>
@@ -914,7 +914,7 @@
         <v>58.220001</v>
       </c>
       <c r="F19" t="n">
-        <v>56.678215</v>
+        <v>56.678211</v>
       </c>
       <c r="G19" t="n">
         <v>2692100</v>
@@ -939,7 +939,7 @@
         <v>58.16</v>
       </c>
       <c r="F20" t="n">
-        <v>56.619808</v>
+        <v>56.619804</v>
       </c>
       <c r="G20" t="n">
         <v>4835000</v>
@@ -964,7 +964,7 @@
         <v>58.25</v>
       </c>
       <c r="F21" t="n">
-        <v>56.70742</v>
+        <v>56.707428</v>
       </c>
       <c r="G21" t="n">
         <v>1925300</v>
@@ -989,7 +989,7 @@
         <v>58.240002</v>
       </c>
       <c r="F22" t="n">
-        <v>56.819611</v>
+        <v>56.819618</v>
       </c>
       <c r="G22" t="n">
         <v>4769800</v>
@@ -1039,7 +1039,7 @@
         <v>58.060001</v>
       </c>
       <c r="F24" t="n">
-        <v>56.644009</v>
+        <v>56.644005</v>
       </c>
       <c r="G24" t="n">
         <v>3923500</v>
@@ -1114,7 +1114,7 @@
         <v>57.950001</v>
       </c>
       <c r="F27" t="n">
-        <v>56.536694</v>
+        <v>56.536686</v>
       </c>
       <c r="G27" t="n">
         <v>2063900</v>
@@ -1139,7 +1139,7 @@
         <v>57.900002</v>
       </c>
       <c r="F28" t="n">
-        <v>56.487911</v>
+        <v>56.487907</v>
       </c>
       <c r="G28" t="n">
         <v>2307100</v>
@@ -1189,7 +1189,7 @@
         <v>57.849998</v>
       </c>
       <c r="F30" t="n">
-        <v>56.439121</v>
+        <v>56.439125</v>
       </c>
       <c r="G30" t="n">
         <v>2826200</v>
@@ -1239,7 +1239,7 @@
         <v>57.75</v>
       </c>
       <c r="F32" t="n">
-        <v>56.341568</v>
+        <v>56.34156</v>
       </c>
       <c r="G32" t="n">
         <v>2379600</v>
@@ -1264,7 +1264,7 @@
         <v>57.779999</v>
       </c>
       <c r="F33" t="n">
-        <v>56.370831</v>
+        <v>56.370834</v>
       </c>
       <c r="G33" t="n">
         <v>4369300</v>
@@ -1289,7 +1289,7 @@
         <v>57.810001</v>
       </c>
       <c r="F34" t="n">
-        <v>56.400108</v>
+        <v>56.400105</v>
       </c>
       <c r="G34" t="n">
         <v>2509800</v>
@@ -1314,7 +1314,7 @@
         <v>57.720001</v>
       </c>
       <c r="F35" t="n">
-        <v>56.312298</v>
+        <v>56.312294</v>
       </c>
       <c r="G35" t="n">
         <v>2876700</v>
@@ -1364,7 +1364,7 @@
         <v>57.759998</v>
       </c>
       <c r="F37" t="n">
-        <v>56.351318</v>
+        <v>56.351315</v>
       </c>
       <c r="G37" t="n">
         <v>2827500</v>
@@ -1389,7 +1389,7 @@
         <v>57.650002</v>
       </c>
       <c r="F38" t="n">
-        <v>56.244007</v>
+        <v>56.244011</v>
       </c>
       <c r="G38" t="n">
         <v>3449300</v>
@@ -1414,7 +1414,7 @@
         <v>57.689999</v>
       </c>
       <c r="F39" t="n">
-        <v>56.283028</v>
+        <v>56.283031</v>
       </c>
       <c r="G39" t="n">
         <v>3556100</v>
@@ -1439,7 +1439,7 @@
         <v>57.689999</v>
       </c>
       <c r="F40" t="n">
-        <v>56.283028</v>
+        <v>56.283031</v>
       </c>
       <c r="G40" t="n">
         <v>3243300</v>
@@ -1464,7 +1464,7 @@
         <v>57.470001</v>
       </c>
       <c r="F41" t="n">
-        <v>56.186241</v>
+        <v>56.186249</v>
       </c>
       <c r="G41" t="n">
         <v>3318800</v>
@@ -1489,7 +1489,7 @@
         <v>57.48</v>
       </c>
       <c r="F42" t="n">
-        <v>56.196022</v>
+        <v>56.196018</v>
       </c>
       <c r="G42" t="n">
         <v>3091200</v>
@@ -1514,7 +1514,7 @@
         <v>57.509998</v>
       </c>
       <c r="F43" t="n">
-        <v>56.225349</v>
+        <v>56.225346</v>
       </c>
       <c r="G43" t="n">
         <v>2867800</v>
@@ -1564,7 +1564,7 @@
         <v>57.360001</v>
       </c>
       <c r="F45" t="n">
-        <v>56.078701</v>
+        <v>56.078697</v>
       </c>
       <c r="G45" t="n">
         <v>3761900</v>
@@ -1589,7 +1589,7 @@
         <v>57.32</v>
       </c>
       <c r="F46" t="n">
-        <v>56.039593</v>
+        <v>56.039589</v>
       </c>
       <c r="G46" t="n">
         <v>3932200</v>
@@ -1639,7 +1639,7 @@
         <v>57.84</v>
       </c>
       <c r="F48" t="n">
-        <v>56.547977</v>
+        <v>56.547981</v>
       </c>
       <c r="G48" t="n">
         <v>5449300</v>
@@ -1664,7 +1664,7 @@
         <v>58.41</v>
       </c>
       <c r="F49" t="n">
-        <v>57.105244</v>
+        <v>57.10524</v>
       </c>
       <c r="G49" t="n">
         <v>11000700</v>
@@ -1689,7 +1689,7 @@
         <v>58.200001</v>
       </c>
       <c r="F50" t="n">
-        <v>56.899929</v>
+        <v>56.89994</v>
       </c>
       <c r="G50" t="n">
         <v>7931300</v>
@@ -1714,7 +1714,7 @@
         <v>58.529999</v>
       </c>
       <c r="F51" t="n">
-        <v>57.222565</v>
+        <v>57.222561</v>
       </c>
       <c r="G51" t="n">
         <v>8773600</v>
@@ -1789,7 +1789,7 @@
         <v>58.529999</v>
       </c>
       <c r="F54" t="n">
-        <v>57.222565</v>
+        <v>57.222561</v>
       </c>
       <c r="G54" t="n">
         <v>3738700</v>
@@ -1814,7 +1814,7 @@
         <v>58.310001</v>
       </c>
       <c r="F55" t="n">
-        <v>57.007481</v>
+        <v>57.007477</v>
       </c>
       <c r="G55" t="n">
         <v>4389300</v>
@@ -1839,7 +1839,7 @@
         <v>58.57</v>
       </c>
       <c r="F56" t="n">
-        <v>57.261673</v>
+        <v>57.261669</v>
       </c>
       <c r="G56" t="n">
         <v>4934700</v>
@@ -1889,7 +1889,7 @@
         <v>58.77</v>
       </c>
       <c r="F58" t="n">
-        <v>57.457207</v>
+        <v>57.457203</v>
       </c>
       <c r="G58" t="n">
         <v>4445000</v>
@@ -1914,7 +1914,7 @@
         <v>58.540001</v>
       </c>
       <c r="F59" t="n">
-        <v>57.232342</v>
+        <v>57.232338</v>
       </c>
       <c r="G59" t="n">
         <v>3097200</v>
@@ -1964,7 +1964,7 @@
         <v>58.439999</v>
       </c>
       <c r="F61" t="n">
-        <v>57.134567</v>
+        <v>57.134571</v>
       </c>
       <c r="G61" t="n">
         <v>3070900</v>
@@ -1989,7 +1989,7 @@
         <v>58.450001</v>
       </c>
       <c r="F62" t="n">
-        <v>57.144348</v>
+        <v>57.144352</v>
       </c>
       <c r="G62" t="n">
         <v>2212800</v>
@@ -2014,7 +2014,7 @@
         <v>58.540001</v>
       </c>
       <c r="F63" t="n">
-        <v>57.232342</v>
+        <v>57.232338</v>
       </c>
       <c r="G63" t="n">
         <v>3751300</v>
@@ -2039,7 +2039,7 @@
         <v>58.439999</v>
       </c>
       <c r="F64" t="n">
-        <v>57.274479</v>
+        <v>57.274483</v>
       </c>
       <c r="G64" t="n">
         <v>5479300</v>
@@ -2239,7 +2239,7 @@
         <v>58.41</v>
       </c>
       <c r="F72" t="n">
-        <v>57.245083</v>
+        <v>57.245075</v>
       </c>
       <c r="G72" t="n">
         <v>2517600</v>
@@ -2314,7 +2314,7 @@
         <v>58.259998</v>
       </c>
       <c r="F75" t="n">
-        <v>57.098064</v>
+        <v>57.098072</v>
       </c>
       <c r="G75" t="n">
         <v>1666600</v>
@@ -2339,7 +2339,7 @@
         <v>58.400002</v>
       </c>
       <c r="F76" t="n">
-        <v>57.235283</v>
+        <v>57.235279</v>
       </c>
       <c r="G76" t="n">
         <v>1922100</v>
@@ -2364,7 +2364,7 @@
         <v>58.360001</v>
       </c>
       <c r="F77" t="n">
-        <v>57.196083</v>
+        <v>57.196079</v>
       </c>
       <c r="G77" t="n">
         <v>2348500</v>
@@ -2514,7 +2514,7 @@
         <v>58.259998</v>
       </c>
       <c r="F83" t="n">
-        <v>57.238888</v>
+        <v>57.238892</v>
       </c>
       <c r="G83" t="n">
         <v>1678000</v>
@@ -2539,7 +2539,7 @@
         <v>58.439999</v>
       </c>
       <c r="F84" t="n">
-        <v>57.415737</v>
+        <v>57.415741</v>
       </c>
       <c r="G84" t="n">
         <v>2370500</v>
@@ -2614,7 +2614,7 @@
         <v>58.529999</v>
       </c>
       <c r="F87" t="n">
-        <v>57.504162</v>
+        <v>57.504166</v>
       </c>
       <c r="G87" t="n">
         <v>1626300</v>
@@ -2639,7 +2639,7 @@
         <v>58.439999</v>
       </c>
       <c r="F88" t="n">
-        <v>57.415737</v>
+        <v>57.415741</v>
       </c>
       <c r="G88" t="n">
         <v>1669900</v>
@@ -2664,7 +2664,7 @@
         <v>58.439999</v>
       </c>
       <c r="F89" t="n">
-        <v>57.415737</v>
+        <v>57.415741</v>
       </c>
       <c r="G89" t="n">
         <v>2252100</v>
@@ -2714,7 +2714,7 @@
         <v>58.610001</v>
       </c>
       <c r="F91" t="n">
-        <v>57.582764</v>
+        <v>57.582767</v>
       </c>
       <c r="G91" t="n">
         <v>19278500</v>
@@ -2739,7 +2739,7 @@
         <v>58.52</v>
       </c>
       <c r="F92" t="n">
-        <v>57.494339</v>
+        <v>57.494343</v>
       </c>
       <c r="G92" t="n">
         <v>10414100</v>
@@ -2764,7 +2764,7 @@
         <v>58.52</v>
       </c>
       <c r="F93" t="n">
-        <v>57.494339</v>
+        <v>57.494343</v>
       </c>
       <c r="G93" t="n">
         <v>2076500</v>
@@ -2814,7 +2814,7 @@
         <v>58.380001</v>
       </c>
       <c r="F95" t="n">
-        <v>57.356792</v>
+        <v>57.356796</v>
       </c>
       <c r="G95" t="n">
         <v>2336100</v>
@@ -2839,7 +2839,7 @@
         <v>58.27</v>
       </c>
       <c r="F96" t="n">
-        <v>57.248726</v>
+        <v>57.248722</v>
       </c>
       <c r="G96" t="n">
         <v>2668400</v>
@@ -2964,7 +2964,7 @@
         <v>58.009998</v>
       </c>
       <c r="F101" t="n">
-        <v>56.993275</v>
+        <v>56.993282</v>
       </c>
       <c r="G101" t="n">
         <v>3509300</v>
@@ -2989,7 +2989,7 @@
         <v>57.970001</v>
       </c>
       <c r="F102" t="n">
-        <v>56.953983</v>
+        <v>56.953979</v>
       </c>
       <c r="G102" t="n">
         <v>2710500</v>
@@ -3014,7 +3014,7 @@
         <v>58.110001</v>
       </c>
       <c r="F103" t="n">
-        <v>57.091526</v>
+        <v>57.09153</v>
       </c>
       <c r="G103" t="n">
         <v>2152300</v>
@@ -3039,7 +3039,7 @@
         <v>58.16</v>
       </c>
       <c r="F104" t="n">
-        <v>57.140652</v>
+        <v>57.140648</v>
       </c>
       <c r="G104" t="n">
         <v>3918100</v>
@@ -3064,7 +3064,7 @@
         <v>58.110001</v>
       </c>
       <c r="F105" t="n">
-        <v>57.241123</v>
+        <v>57.241127</v>
       </c>
       <c r="G105" t="n">
         <v>4234800</v>
@@ -3114,7 +3114,7 @@
         <v>57.970001</v>
       </c>
       <c r="F107" t="n">
-        <v>57.103222</v>
+        <v>57.103218</v>
       </c>
       <c r="G107" t="n">
         <v>1480100</v>
@@ -3139,7 +3139,7 @@
         <v>57.93</v>
       </c>
       <c r="F108" t="n">
-        <v>57.063812</v>
+        <v>57.06382</v>
       </c>
       <c r="G108" t="n">
         <v>2396100</v>
@@ -3164,7 +3164,7 @@
         <v>57.880001</v>
       </c>
       <c r="F109" t="n">
-        <v>57.014565</v>
+        <v>57.014568</v>
       </c>
       <c r="G109" t="n">
         <v>2428900</v>
@@ -3189,7 +3189,7 @@
         <v>57.959999</v>
       </c>
       <c r="F110" t="n">
-        <v>57.093369</v>
+        <v>57.093365</v>
       </c>
       <c r="G110" t="n">
         <v>1710100</v>
@@ -3214,7 +3214,7 @@
         <v>57.880001</v>
       </c>
       <c r="F111" t="n">
-        <v>57.014565</v>
+        <v>57.014568</v>
       </c>
       <c r="G111" t="n">
         <v>1852100</v>
@@ -3314,7 +3314,7 @@
         <v>57.900002</v>
       </c>
       <c r="F115" t="n">
-        <v>57.034267</v>
+        <v>57.034264</v>
       </c>
       <c r="G115" t="n">
         <v>4030100</v>
@@ -3464,7 +3464,7 @@
         <v>57.880001</v>
       </c>
       <c r="F121" t="n">
-        <v>57.014565</v>
+        <v>57.014568</v>
       </c>
       <c r="G121" t="n">
         <v>2136700</v>
@@ -3564,7 +3564,7 @@
         <v>57.73</v>
       </c>
       <c r="F125" t="n">
-        <v>56.866806</v>
+        <v>56.86681</v>
       </c>
       <c r="G125" t="n">
         <v>2840200</v>
@@ -3589,7 +3589,7 @@
         <v>57.509998</v>
       </c>
       <c r="F126" t="n">
-        <v>56.806553</v>
+        <v>56.806549</v>
       </c>
       <c r="G126" t="n">
         <v>2763700</v>
@@ -3614,7 +3614,7 @@
         <v>57.509998</v>
       </c>
       <c r="F127" t="n">
-        <v>56.806553</v>
+        <v>56.806549</v>
       </c>
       <c r="G127" t="n">
         <v>3049800</v>
@@ -3639,7 +3639,7 @@
         <v>57.470001</v>
       </c>
       <c r="F128" t="n">
-        <v>56.767044</v>
+        <v>56.767048</v>
       </c>
       <c r="G128" t="n">
         <v>7396600</v>
@@ -3664,7 +3664,7 @@
         <v>57.509998</v>
       </c>
       <c r="F129" t="n">
-        <v>56.806553</v>
+        <v>56.806549</v>
       </c>
       <c r="G129" t="n">
         <v>2178900</v>
@@ -3689,7 +3689,7 @@
         <v>57.610001</v>
       </c>
       <c r="F130" t="n">
-        <v>56.905334</v>
+        <v>56.905331</v>
       </c>
       <c r="G130" t="n">
         <v>3208800</v>
@@ -3739,7 +3739,7 @@
         <v>57.759998</v>
       </c>
       <c r="F132" t="n">
-        <v>57.05349</v>
+        <v>57.053493</v>
       </c>
       <c r="G132" t="n">
         <v>2808100</v>
@@ -3764,7 +3764,7 @@
         <v>57.91</v>
       </c>
       <c r="F133" t="n">
-        <v>57.20166</v>
+        <v>57.201664</v>
       </c>
       <c r="G133" t="n">
         <v>2462900</v>
@@ -3814,7 +3814,7 @@
         <v>57.810001</v>
       </c>
       <c r="F135" t="n">
-        <v>57.102886</v>
+        <v>57.102882</v>
       </c>
       <c r="G135" t="n">
         <v>1999200</v>
@@ -3864,7 +3864,7 @@
         <v>57.810001</v>
       </c>
       <c r="F137" t="n">
-        <v>57.102886</v>
+        <v>57.102882</v>
       </c>
       <c r="G137" t="n">
         <v>3121700</v>
@@ -3914,7 +3914,7 @@
         <v>57.759998</v>
       </c>
       <c r="F139" t="n">
-        <v>57.05349</v>
+        <v>57.053493</v>
       </c>
       <c r="G139" t="n">
         <v>1915800</v>
@@ -3989,7 +3989,7 @@
         <v>57.759998</v>
       </c>
       <c r="F142" t="n">
-        <v>57.05349</v>
+        <v>57.053493</v>
       </c>
       <c r="G142" t="n">
         <v>2396300</v>
@@ -4014,7 +4014,7 @@
         <v>57.669998</v>
       </c>
       <c r="F143" t="n">
-        <v>56.9646</v>
+        <v>56.964596</v>
       </c>
       <c r="G143" t="n">
         <v>2828500</v>
@@ -4039,7 +4039,7 @@
         <v>57.720001</v>
       </c>
       <c r="F144" t="n">
-        <v>57.013988</v>
+        <v>57.013981</v>
       </c>
       <c r="G144" t="n">
         <v>2188000</v>
@@ -4089,7 +4089,7 @@
         <v>57.540001</v>
       </c>
       <c r="F146" t="n">
-        <v>57.005016</v>
+        <v>57.005013</v>
       </c>
       <c r="G146" t="n">
         <v>3840800</v>
@@ -4189,7 +4189,7 @@
         <v>57.720001</v>
       </c>
       <c r="F150" t="n">
-        <v>57.183342</v>
+        <v>57.183334</v>
       </c>
       <c r="G150" t="n">
         <v>1860200</v>
@@ -4239,7 +4239,7 @@
         <v>57.720001</v>
       </c>
       <c r="F152" t="n">
-        <v>57.183342</v>
+        <v>57.183334</v>
       </c>
       <c r="G152" t="n">
         <v>1707200</v>
@@ -4339,7 +4339,7 @@
         <v>57.610001</v>
       </c>
       <c r="F156" t="n">
-        <v>57.074364</v>
+        <v>57.07436</v>
       </c>
       <c r="G156" t="n">
         <v>1735900</v>
@@ -4414,7 +4414,7 @@
         <v>57.66</v>
       </c>
       <c r="F159" t="n">
-        <v>57.123898</v>
+        <v>57.123894</v>
       </c>
       <c r="G159" t="n">
         <v>1800800</v>
@@ -4439,7 +4439,7 @@
         <v>57.610001</v>
       </c>
       <c r="F160" t="n">
-        <v>57.074364</v>
+        <v>57.07436</v>
       </c>
       <c r="G160" t="n">
         <v>2142100</v>
@@ -4464,7 +4464,7 @@
         <v>57.57</v>
       </c>
       <c r="F161" t="n">
-        <v>57.034729</v>
+        <v>57.034733</v>
       </c>
       <c r="G161" t="n">
         <v>2326300</v>
@@ -4489,7 +4489,7 @@
         <v>57.66</v>
       </c>
       <c r="F162" t="n">
-        <v>57.123898</v>
+        <v>57.123894</v>
       </c>
       <c r="G162" t="n">
         <v>2462900</v>
@@ -4564,7 +4564,7 @@
         <v>57.630001</v>
       </c>
       <c r="F165" t="n">
-        <v>57.094173</v>
+        <v>57.094177</v>
       </c>
       <c r="G165" t="n">
         <v>2406800</v>
@@ -4614,7 +4614,7 @@
         <v>57.759998</v>
       </c>
       <c r="F167" t="n">
-        <v>57.222961</v>
+        <v>57.222965</v>
       </c>
       <c r="G167" t="n">
         <v>1719800</v>
@@ -5867,7 +5867,7 @@
         <v>57.560001</v>
       </c>
       <c r="G217" t="n">
-        <v>2351800</v>
+        <v>2352200</v>
       </c>
     </row>
     <row r="218">
@@ -5883,16 +5883,16 @@
         <v>57.630001</v>
       </c>
       <c r="D218" t="n">
-        <v>57.580002</v>
+        <v>57.549999</v>
       </c>
       <c r="E218" t="n">
-        <v>57.582699</v>
+        <v>57.560001</v>
       </c>
       <c r="F218" t="n">
-        <v>57.582699</v>
+        <v>57.560001</v>
       </c>
       <c r="G218" t="n">
-        <v>618618</v>
+        <v>2129200</v>
       </c>
     </row>
   </sheetData>

--- a/yahoofinance/VGSH_yahoofin_historical_data.xlsx
+++ b/yahoofinance/VGSH_yahoofin_historical_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G218"/>
+  <dimension ref="A1:G229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
         <v>57.860001</v>
       </c>
       <c r="F2" t="n">
-        <v>56.327751</v>
+        <v>56.327744</v>
       </c>
       <c r="G2" t="n">
         <v>6806600</v>
@@ -514,7 +514,7 @@
         <v>57.93</v>
       </c>
       <c r="F3" t="n">
-        <v>56.395889</v>
+        <v>56.395893</v>
       </c>
       <c r="G3" t="n">
         <v>4448900</v>
@@ -539,7 +539,7 @@
         <v>57.860001</v>
       </c>
       <c r="F4" t="n">
-        <v>56.327751</v>
+        <v>56.327744</v>
       </c>
       <c r="G4" t="n">
         <v>3549300</v>
@@ -564,7 +564,7 @@
         <v>58.07</v>
       </c>
       <c r="F5" t="n">
-        <v>56.532181</v>
+        <v>56.532188</v>
       </c>
       <c r="G5" t="n">
         <v>2536600</v>
@@ -614,7 +614,7 @@
         <v>58.099998</v>
       </c>
       <c r="F7" t="n">
-        <v>56.56139</v>
+        <v>56.561394</v>
       </c>
       <c r="G7" t="n">
         <v>2574800</v>
@@ -664,7 +664,7 @@
         <v>58.25</v>
       </c>
       <c r="F9" t="n">
-        <v>56.707428</v>
+        <v>56.707417</v>
       </c>
       <c r="G9" t="n">
         <v>2551000</v>
@@ -714,7 +714,7 @@
         <v>58.189999</v>
       </c>
       <c r="F11" t="n">
-        <v>56.649014</v>
+        <v>56.649006</v>
       </c>
       <c r="G11" t="n">
         <v>3215300</v>
@@ -764,7 +764,7 @@
         <v>58.32</v>
       </c>
       <c r="F13" t="n">
-        <v>56.77557</v>
+        <v>56.775558</v>
       </c>
       <c r="G13" t="n">
         <v>2681700</v>
@@ -814,7 +814,7 @@
         <v>58.200001</v>
       </c>
       <c r="F15" t="n">
-        <v>56.658745</v>
+        <v>56.658741</v>
       </c>
       <c r="G15" t="n">
         <v>3188600</v>
@@ -839,7 +839,7 @@
         <v>58.220001</v>
       </c>
       <c r="F16" t="n">
-        <v>56.678211</v>
+        <v>56.678215</v>
       </c>
       <c r="G16" t="n">
         <v>1941800</v>
@@ -864,7 +864,7 @@
         <v>58.25</v>
       </c>
       <c r="F17" t="n">
-        <v>56.707428</v>
+        <v>56.707417</v>
       </c>
       <c r="G17" t="n">
         <v>2128400</v>
@@ -914,7 +914,7 @@
         <v>58.220001</v>
       </c>
       <c r="F19" t="n">
-        <v>56.678211</v>
+        <v>56.678215</v>
       </c>
       <c r="G19" t="n">
         <v>2692100</v>
@@ -939,7 +939,7 @@
         <v>58.16</v>
       </c>
       <c r="F20" t="n">
-        <v>56.619804</v>
+        <v>56.619797</v>
       </c>
       <c r="G20" t="n">
         <v>4835000</v>
@@ -964,7 +964,7 @@
         <v>58.25</v>
       </c>
       <c r="F21" t="n">
-        <v>56.707428</v>
+        <v>56.707417</v>
       </c>
       <c r="G21" t="n">
         <v>1925300</v>
@@ -989,7 +989,7 @@
         <v>58.240002</v>
       </c>
       <c r="F22" t="n">
-        <v>56.819618</v>
+        <v>56.819614</v>
       </c>
       <c r="G22" t="n">
         <v>4769800</v>
@@ -1014,7 +1014,7 @@
         <v>58.25</v>
       </c>
       <c r="F23" t="n">
-        <v>56.829376</v>
+        <v>56.829369</v>
       </c>
       <c r="G23" t="n">
         <v>4006200</v>
@@ -1039,7 +1039,7 @@
         <v>58.060001</v>
       </c>
       <c r="F24" t="n">
-        <v>56.644005</v>
+        <v>56.644009</v>
       </c>
       <c r="G24" t="n">
         <v>3923500</v>
@@ -1064,7 +1064,7 @@
         <v>57.869999</v>
       </c>
       <c r="F25" t="n">
-        <v>56.458637</v>
+        <v>56.458641</v>
       </c>
       <c r="G25" t="n">
         <v>6606400</v>
@@ -1114,7 +1114,7 @@
         <v>57.950001</v>
       </c>
       <c r="F27" t="n">
-        <v>56.536686</v>
+        <v>56.53669</v>
       </c>
       <c r="G27" t="n">
         <v>2063900</v>
@@ -1164,7 +1164,7 @@
         <v>57.869999</v>
       </c>
       <c r="F29" t="n">
-        <v>56.458637</v>
+        <v>56.458641</v>
       </c>
       <c r="G29" t="n">
         <v>2844700</v>
@@ -1214,7 +1214,7 @@
         <v>57.77</v>
       </c>
       <c r="F31" t="n">
-        <v>56.36108</v>
+        <v>56.361076</v>
       </c>
       <c r="G31" t="n">
         <v>2827500</v>
@@ -1314,7 +1314,7 @@
         <v>57.720001</v>
       </c>
       <c r="F35" t="n">
-        <v>56.312294</v>
+        <v>56.312298</v>
       </c>
       <c r="G35" t="n">
         <v>2876700</v>
@@ -1339,7 +1339,7 @@
         <v>57.740002</v>
       </c>
       <c r="F36" t="n">
-        <v>56.331814</v>
+        <v>56.33181</v>
       </c>
       <c r="G36" t="n">
         <v>5708400</v>
@@ -1364,7 +1364,7 @@
         <v>57.759998</v>
       </c>
       <c r="F37" t="n">
-        <v>56.351315</v>
+        <v>56.351322</v>
       </c>
       <c r="G37" t="n">
         <v>2827500</v>
@@ -1389,7 +1389,7 @@
         <v>57.650002</v>
       </c>
       <c r="F38" t="n">
-        <v>56.244011</v>
+        <v>56.244007</v>
       </c>
       <c r="G38" t="n">
         <v>3449300</v>
@@ -1414,7 +1414,7 @@
         <v>57.689999</v>
       </c>
       <c r="F39" t="n">
-        <v>56.283031</v>
+        <v>56.283028</v>
       </c>
       <c r="G39" t="n">
         <v>3556100</v>
@@ -1439,7 +1439,7 @@
         <v>57.689999</v>
       </c>
       <c r="F40" t="n">
-        <v>56.283031</v>
+        <v>56.283028</v>
       </c>
       <c r="G40" t="n">
         <v>3243300</v>
@@ -1464,7 +1464,7 @@
         <v>57.470001</v>
       </c>
       <c r="F41" t="n">
-        <v>56.186249</v>
+        <v>56.186245</v>
       </c>
       <c r="G41" t="n">
         <v>3318800</v>
@@ -1564,7 +1564,7 @@
         <v>57.360001</v>
       </c>
       <c r="F45" t="n">
-        <v>56.078697</v>
+        <v>56.078701</v>
       </c>
       <c r="G45" t="n">
         <v>3761900</v>
@@ -1614,7 +1614,7 @@
         <v>57.52</v>
       </c>
       <c r="F47" t="n">
-        <v>56.235123</v>
+        <v>56.235126</v>
       </c>
       <c r="G47" t="n">
         <v>4419000</v>
@@ -1639,7 +1639,7 @@
         <v>57.84</v>
       </c>
       <c r="F48" t="n">
-        <v>56.547981</v>
+        <v>56.547977</v>
       </c>
       <c r="G48" t="n">
         <v>5449300</v>
@@ -1664,7 +1664,7 @@
         <v>58.41</v>
       </c>
       <c r="F49" t="n">
-        <v>57.10524</v>
+        <v>57.105244</v>
       </c>
       <c r="G49" t="n">
         <v>11000700</v>
@@ -1689,7 +1689,7 @@
         <v>58.200001</v>
       </c>
       <c r="F50" t="n">
-        <v>56.89994</v>
+        <v>56.899937</v>
       </c>
       <c r="G50" t="n">
         <v>7931300</v>
@@ -1714,7 +1714,7 @@
         <v>58.529999</v>
       </c>
       <c r="F51" t="n">
-        <v>57.222561</v>
+        <v>57.222557</v>
       </c>
       <c r="G51" t="n">
         <v>8773600</v>
@@ -1739,7 +1739,7 @@
         <v>58.299999</v>
       </c>
       <c r="F52" t="n">
-        <v>56.997704</v>
+        <v>56.9977</v>
       </c>
       <c r="G52" t="n">
         <v>5213100</v>
@@ -1789,7 +1789,7 @@
         <v>58.529999</v>
       </c>
       <c r="F54" t="n">
-        <v>57.222561</v>
+        <v>57.222557</v>
       </c>
       <c r="G54" t="n">
         <v>3738700</v>
@@ -1814,7 +1814,7 @@
         <v>58.310001</v>
       </c>
       <c r="F55" t="n">
-        <v>57.007477</v>
+        <v>57.007481</v>
       </c>
       <c r="G55" t="n">
         <v>4389300</v>
@@ -1839,7 +1839,7 @@
         <v>58.57</v>
       </c>
       <c r="F56" t="n">
-        <v>57.261669</v>
+        <v>57.261673</v>
       </c>
       <c r="G56" t="n">
         <v>4934700</v>
@@ -1939,7 +1939,7 @@
         <v>58.470001</v>
       </c>
       <c r="F60" t="n">
-        <v>57.163902</v>
+        <v>57.163906</v>
       </c>
       <c r="G60" t="n">
         <v>3140700</v>
@@ -1989,7 +1989,7 @@
         <v>58.450001</v>
       </c>
       <c r="F62" t="n">
-        <v>57.144352</v>
+        <v>57.144344</v>
       </c>
       <c r="G62" t="n">
         <v>2212800</v>
@@ -2039,7 +2039,7 @@
         <v>58.439999</v>
       </c>
       <c r="F64" t="n">
-        <v>57.274483</v>
+        <v>57.274479</v>
       </c>
       <c r="G64" t="n">
         <v>5479300</v>
@@ -2114,7 +2114,7 @@
         <v>58.630001</v>
       </c>
       <c r="F67" t="n">
-        <v>57.460697</v>
+        <v>57.46069</v>
       </c>
       <c r="G67" t="n">
         <v>2662800</v>
@@ -2139,7 +2139,7 @@
         <v>58.450001</v>
       </c>
       <c r="F68" t="n">
-        <v>57.284283</v>
+        <v>57.284279</v>
       </c>
       <c r="G68" t="n">
         <v>2468900</v>
@@ -2164,7 +2164,7 @@
         <v>58.43</v>
       </c>
       <c r="F69" t="n">
-        <v>57.264687</v>
+        <v>57.264683</v>
       </c>
       <c r="G69" t="n">
         <v>3294500</v>
@@ -2214,7 +2214,7 @@
         <v>58.52</v>
       </c>
       <c r="F71" t="n">
-        <v>57.352886</v>
+        <v>57.352882</v>
       </c>
       <c r="G71" t="n">
         <v>5122000</v>
@@ -2239,7 +2239,7 @@
         <v>58.41</v>
       </c>
       <c r="F72" t="n">
-        <v>57.245075</v>
+        <v>57.245079</v>
       </c>
       <c r="G72" t="n">
         <v>2517600</v>
@@ -2264,7 +2264,7 @@
         <v>58.299999</v>
       </c>
       <c r="F73" t="n">
-        <v>57.137276</v>
+        <v>57.137272</v>
       </c>
       <c r="G73" t="n">
         <v>2750400</v>
@@ -2289,7 +2289,7 @@
         <v>58.299999</v>
       </c>
       <c r="F74" t="n">
-        <v>57.137276</v>
+        <v>57.137272</v>
       </c>
       <c r="G74" t="n">
         <v>1868400</v>
@@ -2314,7 +2314,7 @@
         <v>58.259998</v>
       </c>
       <c r="F75" t="n">
-        <v>57.098072</v>
+        <v>57.098068</v>
       </c>
       <c r="G75" t="n">
         <v>1666600</v>
@@ -2339,7 +2339,7 @@
         <v>58.400002</v>
       </c>
       <c r="F76" t="n">
-        <v>57.235279</v>
+        <v>57.235283</v>
       </c>
       <c r="G76" t="n">
         <v>1922100</v>
@@ -2364,7 +2364,7 @@
         <v>58.360001</v>
       </c>
       <c r="F77" t="n">
-        <v>57.196079</v>
+        <v>57.196083</v>
       </c>
       <c r="G77" t="n">
         <v>2348500</v>
@@ -2439,7 +2439,7 @@
         <v>58.580002</v>
       </c>
       <c r="F80" t="n">
-        <v>57.411694</v>
+        <v>57.41169</v>
       </c>
       <c r="G80" t="n">
         <v>2334700</v>
@@ -2464,7 +2464,7 @@
         <v>58.459999</v>
       </c>
       <c r="F81" t="n">
-        <v>57.294083</v>
+        <v>57.294079</v>
       </c>
       <c r="G81" t="n">
         <v>1911900</v>
@@ -2489,7 +2489,7 @@
         <v>58.529999</v>
       </c>
       <c r="F82" t="n">
-        <v>57.362682</v>
+        <v>57.36269</v>
       </c>
       <c r="G82" t="n">
         <v>2723900</v>
@@ -2514,7 +2514,7 @@
         <v>58.259998</v>
       </c>
       <c r="F83" t="n">
-        <v>57.238892</v>
+        <v>57.238895</v>
       </c>
       <c r="G83" t="n">
         <v>1678000</v>
@@ -2589,7 +2589,7 @@
         <v>58.689999</v>
       </c>
       <c r="F86" t="n">
-        <v>57.661358</v>
+        <v>57.661362</v>
       </c>
       <c r="G86" t="n">
         <v>2551200</v>
@@ -2614,7 +2614,7 @@
         <v>58.529999</v>
       </c>
       <c r="F87" t="n">
-        <v>57.504166</v>
+        <v>57.504162</v>
       </c>
       <c r="G87" t="n">
         <v>1626300</v>
@@ -2689,7 +2689,7 @@
         <v>58.580002</v>
       </c>
       <c r="F90" t="n">
-        <v>57.553288</v>
+        <v>57.553291</v>
       </c>
       <c r="G90" t="n">
         <v>2071800</v>
@@ -2739,7 +2739,7 @@
         <v>58.52</v>
       </c>
       <c r="F92" t="n">
-        <v>57.494343</v>
+        <v>57.494347</v>
       </c>
       <c r="G92" t="n">
         <v>10414100</v>
@@ -2764,7 +2764,7 @@
         <v>58.52</v>
       </c>
       <c r="F93" t="n">
-        <v>57.494343</v>
+        <v>57.494347</v>
       </c>
       <c r="G93" t="n">
         <v>2076500</v>
@@ -2789,7 +2789,7 @@
         <v>58.450001</v>
       </c>
       <c r="F94" t="n">
-        <v>57.425568</v>
+        <v>57.425571</v>
       </c>
       <c r="G94" t="n">
         <v>2691000</v>
@@ -2964,7 +2964,7 @@
         <v>58.009998</v>
       </c>
       <c r="F101" t="n">
-        <v>56.993282</v>
+        <v>56.993279</v>
       </c>
       <c r="G101" t="n">
         <v>3509300</v>
@@ -2989,7 +2989,7 @@
         <v>57.970001</v>
       </c>
       <c r="F102" t="n">
-        <v>56.953979</v>
+        <v>56.953983</v>
       </c>
       <c r="G102" t="n">
         <v>2710500</v>
@@ -3039,7 +3039,7 @@
         <v>58.16</v>
       </c>
       <c r="F104" t="n">
-        <v>57.140648</v>
+        <v>57.140644</v>
       </c>
       <c r="G104" t="n">
         <v>3918100</v>
@@ -3139,7 +3139,7 @@
         <v>57.93</v>
       </c>
       <c r="F108" t="n">
-        <v>57.06382</v>
+        <v>57.063816</v>
       </c>
       <c r="G108" t="n">
         <v>2396100</v>
@@ -3164,7 +3164,7 @@
         <v>57.880001</v>
       </c>
       <c r="F109" t="n">
-        <v>57.014568</v>
+        <v>57.014565</v>
       </c>
       <c r="G109" t="n">
         <v>2428900</v>
@@ -3214,7 +3214,7 @@
         <v>57.880001</v>
       </c>
       <c r="F111" t="n">
-        <v>57.014568</v>
+        <v>57.014565</v>
       </c>
       <c r="G111" t="n">
         <v>1852100</v>
@@ -3264,7 +3264,7 @@
         <v>57.82</v>
       </c>
       <c r="F113" t="n">
-        <v>56.955463</v>
+        <v>56.955467</v>
       </c>
       <c r="G113" t="n">
         <v>2290700</v>
@@ -3289,7 +3289,7 @@
         <v>57.790001</v>
       </c>
       <c r="F114" t="n">
-        <v>56.925915</v>
+        <v>56.925911</v>
       </c>
       <c r="G114" t="n">
         <v>2288800</v>
@@ -3314,7 +3314,7 @@
         <v>57.900002</v>
       </c>
       <c r="F115" t="n">
-        <v>57.034264</v>
+        <v>57.034267</v>
       </c>
       <c r="G115" t="n">
         <v>4030100</v>
@@ -3339,7 +3339,7 @@
         <v>57.82</v>
       </c>
       <c r="F116" t="n">
-        <v>56.955463</v>
+        <v>56.955467</v>
       </c>
       <c r="G116" t="n">
         <v>3299100</v>
@@ -3464,7 +3464,7 @@
         <v>57.880001</v>
       </c>
       <c r="F121" t="n">
-        <v>57.014568</v>
+        <v>57.014565</v>
       </c>
       <c r="G121" t="n">
         <v>2136700</v>
@@ -3489,7 +3489,7 @@
         <v>57.790001</v>
       </c>
       <c r="F122" t="n">
-        <v>56.925915</v>
+        <v>56.925911</v>
       </c>
       <c r="G122" t="n">
         <v>3263600</v>
@@ -5893,6 +5893,281 @@
       </c>
       <c r="G218" t="n">
         <v>2129200</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>57.540001</v>
+      </c>
+      <c r="C219" t="n">
+        <v>57.59</v>
+      </c>
+      <c r="D219" t="n">
+        <v>57.529999</v>
+      </c>
+      <c r="E219" t="n">
+        <v>57.59</v>
+      </c>
+      <c r="F219" t="n">
+        <v>57.59</v>
+      </c>
+      <c r="G219" t="n">
+        <v>7180000</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2023-11-14</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>57.779999</v>
+      </c>
+      <c r="C220" t="n">
+        <v>57.830002</v>
+      </c>
+      <c r="D220" t="n">
+        <v>57.77</v>
+      </c>
+      <c r="E220" t="n">
+        <v>57.810001</v>
+      </c>
+      <c r="F220" t="n">
+        <v>57.810001</v>
+      </c>
+      <c r="G220" t="n">
+        <v>3179500</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2023-11-15</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>57.759998</v>
+      </c>
+      <c r="C221" t="n">
+        <v>57.759998</v>
+      </c>
+      <c r="D221" t="n">
+        <v>57.700001</v>
+      </c>
+      <c r="E221" t="n">
+        <v>57.709999</v>
+      </c>
+      <c r="F221" t="n">
+        <v>57.709999</v>
+      </c>
+      <c r="G221" t="n">
+        <v>4412200</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2023-11-16</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>57.830002</v>
+      </c>
+      <c r="C222" t="n">
+        <v>57.849998</v>
+      </c>
+      <c r="D222" t="n">
+        <v>57.810001</v>
+      </c>
+      <c r="E222" t="n">
+        <v>57.82</v>
+      </c>
+      <c r="F222" t="n">
+        <v>57.82</v>
+      </c>
+      <c r="G222" t="n">
+        <v>2098500</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>57.810001</v>
+      </c>
+      <c r="C223" t="n">
+        <v>57.810001</v>
+      </c>
+      <c r="D223" t="n">
+        <v>57.77</v>
+      </c>
+      <c r="E223" t="n">
+        <v>57.779999</v>
+      </c>
+      <c r="F223" t="n">
+        <v>57.779999</v>
+      </c>
+      <c r="G223" t="n">
+        <v>2142500</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>57.790001</v>
+      </c>
+      <c r="C224" t="n">
+        <v>57.790001</v>
+      </c>
+      <c r="D224" t="n">
+        <v>57.759998</v>
+      </c>
+      <c r="E224" t="n">
+        <v>57.77</v>
+      </c>
+      <c r="F224" t="n">
+        <v>57.77</v>
+      </c>
+      <c r="G224" t="n">
+        <v>2151600</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2023-11-21</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>57.830002</v>
+      </c>
+      <c r="C225" t="n">
+        <v>57.849998</v>
+      </c>
+      <c r="D225" t="n">
+        <v>57.810001</v>
+      </c>
+      <c r="E225" t="n">
+        <v>57.82</v>
+      </c>
+      <c r="F225" t="n">
+        <v>57.82</v>
+      </c>
+      <c r="G225" t="n">
+        <v>2730500</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2023-11-22</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>57.84</v>
+      </c>
+      <c r="C226" t="n">
+        <v>57.849998</v>
+      </c>
+      <c r="D226" t="n">
+        <v>57.790001</v>
+      </c>
+      <c r="E226" t="n">
+        <v>57.82</v>
+      </c>
+      <c r="F226" t="n">
+        <v>57.82</v>
+      </c>
+      <c r="G226" t="n">
+        <v>3921100</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2023-11-24</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>57.810001</v>
+      </c>
+      <c r="C227" t="n">
+        <v>57.810001</v>
+      </c>
+      <c r="D227" t="n">
+        <v>57.790001</v>
+      </c>
+      <c r="E227" t="n">
+        <v>57.790001</v>
+      </c>
+      <c r="F227" t="n">
+        <v>57.790001</v>
+      </c>
+      <c r="G227" t="n">
+        <v>931900</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>57.830002</v>
+      </c>
+      <c r="C228" t="n">
+        <v>57.869999</v>
+      </c>
+      <c r="D228" t="n">
+        <v>57.810001</v>
+      </c>
+      <c r="E228" t="n">
+        <v>57.860001</v>
+      </c>
+      <c r="F228" t="n">
+        <v>57.860001</v>
+      </c>
+      <c r="G228" t="n">
+        <v>2955700</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>57.830002</v>
+      </c>
+      <c r="C229" t="n">
+        <v>57.869999</v>
+      </c>
+      <c r="D229" t="n">
+        <v>57.860001</v>
+      </c>
+      <c r="E229" t="n">
+        <v>57.863899</v>
+      </c>
+      <c r="F229" t="n">
+        <v>57.863899</v>
+      </c>
+      <c r="G229" t="n">
+        <v>249575</v>
       </c>
     </row>
   </sheetData>
